--- a/Hobol/0709_2/CD/0709_2 Szolgalmi jog koord.xlsx
+++ b/Hobol/0709_2/CD/0709_2 Szolgalmi jog koord.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\!Munka\Hobol\0709_2\CD\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="60" windowWidth="11340" windowHeight="7245" tabRatio="334"/>
   </bookViews>
@@ -18,12 +13,12 @@
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$2</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="73">
   <si>
     <t>Pontkód</t>
   </si>
@@ -112,12 +107,147 @@
   <si>
     <t>72595.670</t>
   </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>550009.500</t>
+  </si>
+  <si>
+    <t>72677.760</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>549999.590</t>
+  </si>
+  <si>
+    <t>72739.140</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>550001.960</t>
+  </si>
+  <si>
+    <t>72759.090</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>550016.410</t>
+  </si>
+  <si>
+    <t>72814.720</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>550393.220</t>
+  </si>
+  <si>
+    <t>72853.940</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>550436.730</t>
+  </si>
+  <si>
+    <t>72630.970</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>550471.610</t>
+  </si>
+  <si>
+    <t>72514.590</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>550360.600</t>
+  </si>
+  <si>
+    <t>72436.180</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>550317.530</t>
+  </si>
+  <si>
+    <t>72386.320</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>550233.610</t>
+  </si>
+  <si>
+    <t>72266.470</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>550240.040</t>
+  </si>
+  <si>
+    <t>72193.980</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>550221.470</t>
+  </si>
+  <si>
+    <t>72155.990</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>550189.260</t>
+  </si>
+  <si>
+    <t>72133.660</t>
+  </si>
+  <si>
+    <t>20003</t>
+  </si>
+  <si>
+    <t>550016.380</t>
+  </si>
+  <si>
+    <t>72814.750</t>
+  </si>
+  <si>
+    <t>20004</t>
+  </si>
+  <si>
+    <t>550393.210</t>
+  </si>
+  <si>
+    <t>szántó széle</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -324,7 +454,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -356,10 +486,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -391,7 +520,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -567,14 +695,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AN95"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="6.7109375" customWidth="1"/>
     <col min="2" max="2" width="16.140625" style="12" customWidth="1"/>
@@ -598,7 +726,7 @@
     <col min="40" max="40" width="9.5703125" style="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:40" s="4" customFormat="1" ht="14.25" customHeight="1">
       <c r="A1" s="5"/>
       <c r="B1" s="10" t="s">
         <v>1</v>
@@ -648,7 +776,7 @@
       <c r="AM1" s="8"/>
       <c r="AN1" s="9"/>
     </row>
-    <row r="2" spans="1:40" s="2" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:40" s="2" customFormat="1" ht="9" customHeight="1">
       <c r="B2" s="12"/>
       <c r="C2" s="7"/>
       <c r="D2" s="13"/>
@@ -689,7 +817,7 @@
       <c r="AM2" s="8"/>
       <c r="AN2" s="9"/>
     </row>
-    <row r="3" spans="1:40" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:40" s="3" customFormat="1" ht="25.5" customHeight="1">
       <c r="B3" s="27" t="s">
         <v>6</v>
       </c>
@@ -734,7 +862,7 @@
       <c r="AM3" s="8"/>
       <c r="AN3" s="9"/>
     </row>
-    <row r="4" spans="1:40" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:40" s="3" customFormat="1" ht="14.25" customHeight="1">
       <c r="B4" s="21"/>
       <c r="C4" s="21"/>
       <c r="D4" s="21"/>
@@ -775,7 +903,7 @@
       <c r="AM4" s="8"/>
       <c r="AN4" s="9"/>
     </row>
-    <row r="5" spans="1:40" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:40" s="3" customFormat="1" ht="14.25" customHeight="1">
       <c r="B5" s="24" t="s">
         <v>7</v>
       </c>
@@ -824,7 +952,7 @@
       <c r="AM5" s="8"/>
       <c r="AN5" s="9"/>
     </row>
-    <row r="6" spans="1:40" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:40" s="3" customFormat="1" ht="14.25" customHeight="1">
       <c r="B6" s="24" t="s">
         <v>9</v>
       </c>
@@ -873,7 +1001,7 @@
       <c r="AM6" s="8"/>
       <c r="AN6" s="9"/>
     </row>
-    <row r="7" spans="1:40" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:40" s="3" customFormat="1" ht="14.25" customHeight="1">
       <c r="B7" s="24"/>
       <c r="C7" s="24"/>
       <c r="D7" s="24"/>
@@ -914,7 +1042,7 @@
       <c r="AM7" s="8"/>
       <c r="AN7" s="9"/>
     </row>
-    <row r="8" spans="1:40" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:40" s="3" customFormat="1" ht="14.25" customHeight="1">
       <c r="B8" s="12"/>
       <c r="C8" s="7"/>
       <c r="D8" s="13"/>
@@ -948,7 +1076,7 @@
       <c r="AM8" s="8"/>
       <c r="AN8" s="9"/>
     </row>
-    <row r="9" spans="1:40" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:40" s="3" customFormat="1" ht="14.25" customHeight="1">
       <c r="B9" s="26" t="s">
         <v>5</v>
       </c>
@@ -984,7 +1112,7 @@
       <c r="AM9" s="8"/>
       <c r="AN9" s="9"/>
     </row>
-    <row r="10" spans="1:40" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:40" s="3" customFormat="1" ht="14.25" customHeight="1">
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
       <c r="D10" s="16"/>
@@ -1018,7 +1146,7 @@
       <c r="AM10" s="8"/>
       <c r="AN10" s="9"/>
     </row>
-    <row r="11" spans="1:40" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:40" s="3" customFormat="1" ht="14.25" customHeight="1">
       <c r="B11" s="24" t="s">
         <v>10</v>
       </c>
@@ -1060,7 +1188,7 @@
       <c r="AM11" s="8"/>
       <c r="AN11" s="9"/>
     </row>
-    <row r="12" spans="1:40" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:40" s="3" customFormat="1" ht="14.25" customHeight="1">
       <c r="B12" s="24" t="s">
         <v>12</v>
       </c>
@@ -1102,7 +1230,7 @@
       <c r="AM12" s="8"/>
       <c r="AN12" s="9"/>
     </row>
-    <row r="13" spans="1:40" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:40" s="3" customFormat="1" ht="14.25" customHeight="1">
       <c r="B13" s="24" t="s">
         <v>13</v>
       </c>
@@ -1144,7 +1272,7 @@
       <c r="AM13" s="8"/>
       <c r="AN13" s="9"/>
     </row>
-    <row r="14" spans="1:40" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:40" s="3" customFormat="1" ht="14.25" customHeight="1">
       <c r="B14" s="24" t="s">
         <v>14</v>
       </c>
@@ -1193,7 +1321,7 @@
       <c r="AM14" s="8"/>
       <c r="AN14" s="9"/>
     </row>
-    <row r="15" spans="1:40" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:40" s="3" customFormat="1" ht="14.25" customHeight="1">
       <c r="B15" s="24"/>
       <c r="C15" s="24"/>
       <c r="D15" s="24"/>
@@ -1204,9 +1332,6 @@
       <c r="I15" s="14"/>
       <c r="J15" s="12"/>
       <c r="K15" s="24"/>
-      <c r="L15" s="24"/>
-      <c r="M15" s="24"/>
-      <c r="N15" s="24"/>
       <c r="O15" s="24"/>
       <c r="P15" s="24"/>
       <c r="Q15" s="24"/>
@@ -1234,7 +1359,7 @@
       <c r="AM15" s="8"/>
       <c r="AN15" s="9"/>
     </row>
-    <row r="16" spans="1:40" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:40" s="3" customFormat="1" ht="14.25" customHeight="1">
       <c r="B16" s="24"/>
       <c r="C16" s="24"/>
       <c r="D16" s="24"/>
@@ -1245,9 +1370,6 @@
       <c r="I16" s="14"/>
       <c r="J16" s="12"/>
       <c r="K16" s="24"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="24"/>
-      <c r="N16" s="24"/>
       <c r="O16" s="24"/>
       <c r="P16" s="24"/>
       <c r="Q16" s="24"/>
@@ -1275,7 +1397,7 @@
       <c r="AM16" s="8"/>
       <c r="AN16" s="9"/>
     </row>
-    <row r="17" spans="2:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:40" ht="14.25" customHeight="1">
       <c r="G17" s="13"/>
       <c r="H17" s="7"/>
       <c r="Z17" s="24"/>
@@ -1283,7 +1405,7 @@
       <c r="AB17" s="24"/>
       <c r="AC17" s="24"/>
     </row>
-    <row r="18" spans="2:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:40" ht="14.25" customHeight="1">
       <c r="G18" s="13"/>
       <c r="H18" s="7"/>
       <c r="Z18" s="24"/>
@@ -1291,7 +1413,7 @@
       <c r="AB18" s="24"/>
       <c r="AC18" s="24"/>
     </row>
-    <row r="19" spans="2:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:40" ht="14.25" customHeight="1">
       <c r="G19" s="13"/>
       <c r="H19" s="7"/>
       <c r="Z19" s="24"/>
@@ -1299,7 +1421,7 @@
       <c r="AB19" s="24"/>
       <c r="AC19" s="24"/>
     </row>
-    <row r="20" spans="2:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:40" ht="14.25" customHeight="1">
       <c r="G20" s="13"/>
       <c r="H20" s="7"/>
       <c r="Z20" s="24"/>
@@ -1307,7 +1429,7 @@
       <c r="AB20" s="24"/>
       <c r="AC20" s="24"/>
     </row>
-    <row r="21" spans="2:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:40" ht="14.25" customHeight="1">
       <c r="G21" s="13"/>
       <c r="H21" s="7"/>
       <c r="Z21" s="24"/>
@@ -1315,7 +1437,7 @@
       <c r="AB21" s="24"/>
       <c r="AC21" s="24"/>
     </row>
-    <row r="22" spans="2:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:40" ht="14.25" customHeight="1">
       <c r="B22" s="26" t="s">
         <v>4</v>
       </c>
@@ -1337,7 +1459,7 @@
       <c r="AM22"/>
       <c r="AN22"/>
     </row>
-    <row r="23" spans="2:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:40" ht="14.25" customHeight="1">
       <c r="B23" s="21"/>
       <c r="C23" s="21"/>
       <c r="D23" s="21"/>
@@ -1357,193 +1479,358 @@
       <c r="AM23"/>
       <c r="AN23"/>
     </row>
-    <row r="24" spans="2:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:40" ht="14.25" customHeight="1">
+      <c r="B24" s="24" t="s">
+        <v>28</v>
+      </c>
       <c r="C24" s="21"/>
+      <c r="D24" s="24" t="s">
+        <v>29</v>
+      </c>
       <c r="E24" s="21"/>
+      <c r="F24" s="24" t="s">
+        <v>30</v>
+      </c>
       <c r="G24" s="21"/>
-      <c r="H24" s="7"/>
+      <c r="H24" s="7" t="s">
+        <v>72</v>
+      </c>
       <c r="Z24" s="24"/>
       <c r="AA24" s="24"/>
       <c r="AB24" s="24"/>
       <c r="AC24" s="24"/>
     </row>
-    <row r="25" spans="2:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:40" ht="14.25" customHeight="1">
+      <c r="B25" s="24" t="s">
+        <v>31</v>
+      </c>
       <c r="C25" s="21"/>
+      <c r="D25" s="24" t="s">
+        <v>32</v>
+      </c>
       <c r="E25" s="21"/>
+      <c r="F25" s="24" t="s">
+        <v>33</v>
+      </c>
       <c r="G25" s="21"/>
-      <c r="H25" s="7"/>
+      <c r="H25" s="7" t="s">
+        <v>72</v>
+      </c>
       <c r="Z25" s="24"/>
       <c r="AA25" s="24"/>
       <c r="AB25" s="24"/>
       <c r="AC25" s="24"/>
     </row>
-    <row r="26" spans="2:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:40" ht="14.25" customHeight="1">
+      <c r="B26" s="24" t="s">
+        <v>34</v>
+      </c>
       <c r="C26" s="21"/>
+      <c r="D26" s="24" t="s">
+        <v>35</v>
+      </c>
       <c r="E26" s="21"/>
+      <c r="F26" s="24" t="s">
+        <v>36</v>
+      </c>
       <c r="G26" s="21"/>
-      <c r="H26" s="7"/>
+      <c r="H26" s="7" t="s">
+        <v>72</v>
+      </c>
       <c r="Z26" s="24"/>
       <c r="AA26" s="24"/>
       <c r="AB26" s="24"/>
       <c r="AC26" s="24"/>
     </row>
-    <row r="27" spans="2:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:40" ht="14.25" customHeight="1">
+      <c r="B27" s="24" t="s">
+        <v>37</v>
+      </c>
       <c r="C27" s="21"/>
+      <c r="D27" s="24" t="s">
+        <v>38</v>
+      </c>
       <c r="E27" s="21"/>
+      <c r="F27" s="24" t="s">
+        <v>39</v>
+      </c>
       <c r="G27" s="21"/>
-      <c r="H27" s="7"/>
+      <c r="H27" s="7" t="s">
+        <v>72</v>
+      </c>
       <c r="Z27" s="24"/>
       <c r="AA27" s="24"/>
       <c r="AB27" s="24"/>
       <c r="AC27" s="24"/>
     </row>
-    <row r="28" spans="2:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:40" ht="14.25" customHeight="1">
+      <c r="B28" s="24" t="s">
+        <v>40</v>
+      </c>
       <c r="C28" s="21"/>
+      <c r="D28" s="24" t="s">
+        <v>41</v>
+      </c>
       <c r="E28" s="21"/>
+      <c r="F28" s="24" t="s">
+        <v>42</v>
+      </c>
       <c r="G28" s="21"/>
-      <c r="H28" s="7"/>
-    </row>
-    <row r="29" spans="2:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H28" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="2:40" ht="14.25" customHeight="1">
+      <c r="B29" s="24" t="s">
+        <v>43</v>
+      </c>
       <c r="C29" s="22"/>
+      <c r="D29" s="24" t="s">
+        <v>44</v>
+      </c>
       <c r="E29" s="22"/>
+      <c r="F29" s="24" t="s">
+        <v>45</v>
+      </c>
       <c r="G29" s="22"/>
-      <c r="H29" s="7"/>
-    </row>
-    <row r="30" spans="2:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H30" s="7"/>
-    </row>
-    <row r="31" spans="2:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H29" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="2:40" ht="14.25" customHeight="1">
+      <c r="B30" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="D30" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="F30" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" spans="2:40" ht="14.25" customHeight="1">
+      <c r="B31" s="24" t="s">
+        <v>49</v>
+      </c>
       <c r="C31" s="23"/>
+      <c r="D31" s="24" t="s">
+        <v>50</v>
+      </c>
       <c r="E31" s="23"/>
+      <c r="F31" s="24" t="s">
+        <v>51</v>
+      </c>
       <c r="G31" s="23"/>
-      <c r="H31" s="7"/>
-    </row>
-    <row r="32" spans="2:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H31" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" spans="2:40" ht="14.25" customHeight="1">
+      <c r="B32" s="24" t="s">
+        <v>52</v>
+      </c>
       <c r="C32" s="19"/>
+      <c r="D32" s="24" t="s">
+        <v>53</v>
+      </c>
       <c r="E32" s="19"/>
+      <c r="F32" s="24" t="s">
+        <v>54</v>
+      </c>
       <c r="G32" s="19"/>
-      <c r="H32" s="7"/>
-    </row>
-    <row r="33" spans="3:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H32" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" ht="14.25" customHeight="1">
+      <c r="B33" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="D33" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="F33" s="24" t="s">
+        <v>57</v>
+      </c>
       <c r="G33" s="13"/>
-      <c r="H33" s="7"/>
-    </row>
-    <row r="34" spans="3:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H33" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" ht="14.25" customHeight="1">
+      <c r="B34" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D34" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="F34" s="24" t="s">
+        <v>60</v>
+      </c>
       <c r="G34" s="13"/>
-      <c r="H34" s="7"/>
-    </row>
-    <row r="35" spans="3:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H34" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" ht="14.25" customHeight="1">
+      <c r="B35" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="D35" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="F35" s="24" t="s">
+        <v>63</v>
+      </c>
       <c r="G35" s="13"/>
-      <c r="H35" s="7"/>
-    </row>
-    <row r="36" spans="3:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H35" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" ht="14.25" customHeight="1">
+      <c r="B36" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="D36" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="F36" s="24" t="s">
+        <v>66</v>
+      </c>
       <c r="G36" s="13"/>
-      <c r="H36" s="7"/>
-    </row>
-    <row r="37" spans="3:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H36" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" ht="14.25" customHeight="1">
+      <c r="B37" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="D37" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="F37" s="24" t="s">
+        <v>69</v>
+      </c>
       <c r="G37" s="13"/>
-      <c r="H37" s="7"/>
-    </row>
-    <row r="38" spans="3:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H37" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" ht="14.25" customHeight="1">
+      <c r="B38" s="24" t="s">
+        <v>70</v>
+      </c>
       <c r="C38" s="20"/>
+      <c r="D38" s="24" t="s">
+        <v>71</v>
+      </c>
       <c r="E38" s="20"/>
+      <c r="F38" s="24" t="s">
+        <v>42</v>
+      </c>
       <c r="G38" s="20"/>
-      <c r="H38" s="7"/>
-    </row>
-    <row r="39" spans="3:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H38" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" ht="14.25" customHeight="1">
       <c r="C39" s="18"/>
       <c r="E39" s="18"/>
       <c r="G39" s="18"/>
       <c r="H39" s="7"/>
     </row>
-    <row r="40" spans="3:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:8" ht="14.25" customHeight="1">
       <c r="C40" s="17"/>
       <c r="E40" s="17"/>
       <c r="G40" s="17"/>
       <c r="H40" s="7"/>
     </row>
-    <row r="41" spans="3:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:8" ht="14.25" customHeight="1">
       <c r="C41" s="17"/>
       <c r="E41" s="17"/>
       <c r="G41" s="17"/>
       <c r="H41" s="7"/>
     </row>
-    <row r="42" spans="3:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:8" ht="14.25" customHeight="1">
       <c r="C42" s="17"/>
       <c r="E42" s="17"/>
       <c r="G42" s="17"/>
       <c r="H42" s="7"/>
     </row>
-    <row r="43" spans="3:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:8" ht="14.25" customHeight="1">
       <c r="H43" s="7"/>
     </row>
-    <row r="44" spans="3:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:8" ht="14.25" customHeight="1">
       <c r="H44" s="7"/>
     </row>
-    <row r="45" spans="3:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:8" ht="14.25" customHeight="1">
       <c r="H45" s="7"/>
     </row>
-    <row r="46" spans="3:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:8" ht="14.25" customHeight="1">
       <c r="H46" s="7"/>
     </row>
-    <row r="47" spans="3:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:8" ht="14.25" customHeight="1">
       <c r="H47" s="7"/>
     </row>
-    <row r="48" spans="3:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:8" ht="14.25" customHeight="1">
       <c r="H48" s="7"/>
     </row>
-    <row r="49" spans="8:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="8:8" ht="14.25" customHeight="1">
       <c r="H49" s="7"/>
     </row>
-    <row r="50" spans="8:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="8:8" ht="14.25" customHeight="1">
       <c r="H50" s="7"/>
     </row>
-    <row r="51" spans="8:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="8:8" ht="14.25" customHeight="1">
       <c r="H51" s="7"/>
     </row>
-    <row r="52" spans="8:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="8:8" ht="14.25" customHeight="1">
       <c r="H52" s="7"/>
     </row>
-    <row r="53" spans="8:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="8:8" ht="14.25" customHeight="1">
       <c r="H53" s="7"/>
     </row>
-    <row r="54" spans="8:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="8:8" ht="14.25" customHeight="1">
       <c r="H54" s="7"/>
     </row>
-    <row r="55" spans="8:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="8:8" ht="14.25" customHeight="1">
       <c r="H55" s="7"/>
     </row>
-    <row r="56" spans="8:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="8:8" ht="14.25" customHeight="1">
       <c r="H56" s="7"/>
     </row>
-    <row r="57" spans="8:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="8:8" ht="14.25" customHeight="1">
       <c r="H57" s="7"/>
     </row>
-    <row r="58" spans="8:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="8:8" ht="14.25" customHeight="1">
       <c r="H58" s="7"/>
     </row>
-    <row r="59" spans="8:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="8:8" ht="14.25" customHeight="1">
       <c r="H59" s="7"/>
     </row>
-    <row r="60" spans="8:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="8:8" ht="14.25" customHeight="1">
       <c r="H60" s="7"/>
     </row>
-    <row r="61" spans="8:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="8:8" ht="14.25" customHeight="1">
       <c r="H61" s="7"/>
     </row>
-    <row r="91" spans="35:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="35:35" ht="14.25" customHeight="1">
       <c r="AI91" s="1"/>
     </row>
-    <row r="92" spans="35:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="35:35" ht="14.25" customHeight="1">
       <c r="AI92" s="1"/>
     </row>
-    <row r="93" spans="35:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="35:35" ht="14.25" customHeight="1">
       <c r="AI93" s="1"/>
     </row>
-    <row r="94" spans="35:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="35:35" ht="14.25" customHeight="1">
       <c r="AI94" s="1"/>
     </row>
-    <row r="95" spans="35:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="35:35" ht="14.25" customHeight="1">
       <c r="AI95" s="1"/>
     </row>
   </sheetData>
@@ -1564,12 +1851,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
